--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.wylie\Documents\UiPath\Init_Config\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.wylie\Documents\UiPath\PrivateRepos\BackgroundAPICallToExcel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0481182-1B6F-44EB-806F-516F052211AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493284E1-33C1-4C85-820C-BD71DC04A4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -153,29 +153,89 @@
     <t>Static part of logging message. Processed Transaction failed with application exception</t>
   </si>
   <si>
-    <t>SAPCredentials</t>
-  </si>
-  <si>
-    <t>ServerName</t>
-  </si>
-  <si>
-    <t>SAPLogin</t>
-  </si>
-  <si>
-    <t>Sandbox</t>
-  </si>
-  <si>
-    <t>Name of SAP Credential asset in UiPath Orchestrator</t>
-  </si>
-  <si>
-    <t>Name of the SAP server that is being connected to</t>
+    <t>AccountLogicalName</t>
+  </si>
+  <si>
+    <t>ClientID</t>
+  </si>
+  <si>
+    <t>TenantLogicalName</t>
+  </si>
+  <si>
+    <t>UserKey</t>
+  </si>
+  <si>
+    <t>Account Logical Name for Auth API</t>
+  </si>
+  <si>
+    <t>ClientID for Auth API</t>
+  </si>
+  <si>
+    <t>Tenant Logical Name for Auth API Call.</t>
+  </si>
+  <si>
+    <t>User Key for UiPath API Auth</t>
+  </si>
+  <si>
+    <t>OutputExcelFilePath</t>
+  </si>
+  <si>
+    <t>OutputExcelSheetName</t>
+  </si>
+  <si>
+    <t>OutputExcelStartingCell</t>
+  </si>
+  <si>
+    <t>Output.xlsx</t>
+  </si>
+  <si>
+    <t>ProcessData</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>File Path to the Output Excel File</t>
+  </si>
+  <si>
+    <t>Sheet name of output Excel File</t>
+  </si>
+  <si>
+    <t>Starting Cell value for output excel file</t>
+  </si>
+  <si>
+    <t>EmailTo</t>
+  </si>
+  <si>
+    <t>EmailSubject</t>
+  </si>
+  <si>
+    <t>EmailBody</t>
+  </si>
+  <si>
+    <t>patrick.wylie@accenturefederal.com</t>
+  </si>
+  <si>
+    <t>API Output</t>
+  </si>
+  <si>
+    <t>Here is the ouput Excel sheet with the API Call data</t>
+  </si>
+  <si>
+    <t>Email address to send email to</t>
+  </si>
+  <si>
+    <t>Email Subject Matter</t>
+  </si>
+  <si>
+    <t>Email text content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,12 +245,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -211,17 +265,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,7 +588,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -584,37 +635,71 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2832,7 +2917,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2875,11 +2960,49 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
